--- a/Product Backlog Hưng.xlsx
+++ b/Product Backlog Hưng.xlsx
@@ -1,44 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WalkerPC\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13845BF1-0AC4-4919-B028-5090E8F7C794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7D422B1B-0947-4A07-9153-67F7ACA46A9C}"/>
+    <workbookView windowWidth="14055" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
+    <t>PRODUCT BACKLOG</t>
+  </si>
+  <si>
     <t>STORE FRONT</t>
   </si>
   <si>
-    <t>PRODUCT BACKLOG</t>
-  </si>
-  <si>
     <t>Story ID</t>
   </si>
   <si>
     <t>Story Name</t>
   </si>
   <si>
+    <t>Staff manager</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t>Forgot password ?</t>
+  </si>
+  <si>
     <t>View Product list</t>
   </si>
   <si>
@@ -48,24 +49,12 @@
     <t>Manage Shopping Cart (Add, Increase, Decrease, Remove)</t>
   </si>
   <si>
-    <t>Registration</t>
+    <t>Make Order</t>
   </si>
   <si>
     <t>Chat with Sale</t>
   </si>
   <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login </t>
-  </si>
-  <si>
-    <t>Forgot password ?</t>
-  </si>
-  <si>
-    <t>Make Order</t>
-  </si>
-  <si>
     <t>Order Management (Cancel Request, View)</t>
   </si>
   <si>
@@ -75,25 +64,39 @@
     <t>Payment</t>
   </si>
   <si>
+    <t xml:space="preserve">Can use Coupon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Favorites in Account </t>
+  </si>
+  <si>
     <t>Logout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can use Coupon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Favorites in Account </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,28 +104,171 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <u/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,7 +277,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,12 +295,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -185,21 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thick">
@@ -209,14 +526,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -245,6 +566,17 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -256,13 +588,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -271,30 +844,75 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -343,7 +961,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -376,26 +994,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -428,23 +1029,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -586,354 +1170,350 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D25A2E5-B770-46A0-A976-BDFE9D31B63B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="A8" sqref="A8:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.55238095238095" customWidth="1"/>
+    <col min="2" max="2" width="4.33333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+    <row r="6" ht="15.75"/>
+    <row r="7" ht="16.5" spans="1:11">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="6">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>2</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="6">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>3</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>4</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>5</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>6</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="9">
         <v>7</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="6">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>8</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="6">
         <v>9</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="6">
         <v>10</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="6">
         <v>11</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="6">
         <v>12</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="6">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>13</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="10">
         <v>14</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="C22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="B1:G2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="B1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>